--- a/data/lasso_reduced_features_importance.xlsx
+++ b/data/lasso_reduced_features_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2134268120737289</v>
+        <v>0.2006149231179756</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2134268120737289</v>
+        <v>0.2006149231179756</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1054705988744536</v>
+        <v>-0.1242623725641577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1054705988744536</v>
+        <v>0.1242623725641577</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.07411211059520535</v>
+        <v>-0.07667383211586348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07411211059520535</v>
+        <v>0.07667383211586348</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05484820338600969</v>
+        <v>0.0587102539487988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05484820338600969</v>
+        <v>0.0587102539487988</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.03940538762040381</v>
+        <v>-0.04809243981373134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03940538762040381</v>
+        <v>0.04809243981373134</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -561,73 +561,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>字母组合特征_FA_reduced</t>
+          <t>字母频率特征_weighted_reduced</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.01777494107799148</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01777494107799148</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>keyboard_distance</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.01038143588691058</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01038143588691058</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>字母频率特征_weighted_reduced</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.004355554371742259</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.004355554371742259</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>语义特征_weighted_reduced</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
